--- a/AFPK.xlsx
+++ b/AFPK.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="54">
   <si>
     <t>v</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -443,6 +443,118 @@
         <scheme val="minor"/>
       </rPr>
       <t xml:space="preserve"> ( 7년 경과 후, 사유가 해제 된다면 ) 해제와 동시에 삭제. </t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>휴리스틱</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> : 신속하게 사용하는 편의적 직감적 방법</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>이용가능성 휴리스틱</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> : 대표 사례를 생각해내고 그것을 기준으로 판단</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>대표성 휴리스틱</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> : 집합의 사상이 집합의 특성을 나타낸다고 생각</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>소유효과 : 자신이 가진 재산을 처분하지않고 보유하고싶어하는 효과</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>손실회피 : 같은 기쁨과 고통이여도 고통을 더 크게 받아들임</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">재무설계사 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>↔</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve"> 고객 의사소통 : 소집단 의사소통</t>
     </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1054,10 +1166,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H35"/>
+  <dimension ref="A1:L35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="H10" sqref="H10"/>
+    <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
+      <selection activeCell="K6" sqref="K6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.95" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -1070,9 +1182,13 @@
     <col min="6" max="6" width="56" style="2" customWidth="1"/>
     <col min="7" max="7" width="12.375" style="1" customWidth="1"/>
     <col min="8" max="8" width="56" style="2" customWidth="1"/>
+    <col min="9" max="9" width="12.375" style="1" customWidth="1"/>
+    <col min="10" max="10" width="56" style="2" customWidth="1"/>
+    <col min="11" max="11" width="12.375" style="1" customWidth="1"/>
+    <col min="12" max="12" width="56" style="2" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="18.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:12" ht="18.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1">
         <v>1</v>
       </c>
@@ -1091,8 +1207,20 @@
       <c r="H1" s="2" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="2" spans="1:8" ht="18.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="I1" s="22">
+        <v>1</v>
+      </c>
+      <c r="J1" s="28" t="s">
+        <v>48</v>
+      </c>
+      <c r="K1" s="1">
+        <v>1</v>
+      </c>
+      <c r="L1" s="15" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" ht="18.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -1108,8 +1236,17 @@
       <c r="H2" s="17" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="3" spans="1:8" ht="18.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="I2" s="1">
+        <v>4</v>
+      </c>
+      <c r="J2" s="25" t="s">
+        <v>49</v>
+      </c>
+      <c r="K2" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" ht="18.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="1">
         <v>4</v>
       </c>
@@ -1129,8 +1266,17 @@
       <c r="H3" s="19" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="4" spans="1:8" ht="18.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="I3" s="1">
+        <v>3</v>
+      </c>
+      <c r="J3" s="26" t="s">
+        <v>50</v>
+      </c>
+      <c r="K3" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" ht="18.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="1">
         <v>3</v>
       </c>
@@ -1146,8 +1292,14 @@
       <c r="G4" s="1">
         <v>3</v>
       </c>
-    </row>
-    <row r="5" spans="1:8" ht="18.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="I4" s="22">
+        <v>3</v>
+      </c>
+      <c r="K4" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" ht="18.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="1">
         <v>2</v>
       </c>
@@ -1163,8 +1315,17 @@
       <c r="G5" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="6" spans="1:8" ht="18.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="I5" s="1">
+        <v>2</v>
+      </c>
+      <c r="J5" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="K5" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" ht="18.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -1186,8 +1347,17 @@
       <c r="G6" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="7" spans="1:8" ht="18.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="I6" s="12">
+        <v>1</v>
+      </c>
+      <c r="J6" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="K6" s="12">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" ht="18.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="13" t="s">
         <v>0</v>
       </c>
@@ -1207,7 +1377,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:8" ht="18.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:12" ht="18.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A8" s="1">
         <v>1</v>
       </c>
@@ -1227,7 +1397,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="9" spans="1:8" ht="18.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:12" ht="18.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A9" s="1">
         <v>4</v>
       </c>
@@ -1250,7 +1420,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="10" spans="1:8" ht="18.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:12" ht="18.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
         <v>1</v>
       </c>
@@ -1273,7 +1443,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="11" spans="1:8" ht="18.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:12" ht="18.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A11" s="1">
         <v>2</v>
       </c>
@@ -1291,7 +1461,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="12" spans="1:8" ht="18.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:12" ht="18.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A12" s="1">
         <v>4</v>
       </c>
@@ -1308,7 +1478,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="13" spans="1:8" ht="18.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:12" ht="18.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A13" s="1">
         <v>3</v>
       </c>
@@ -1325,7 +1495,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="14" spans="1:8" ht="18.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:12" ht="18.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A14" s="1">
         <v>1</v>
       </c>
@@ -1345,7 +1515,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="15" spans="1:8" ht="18.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:12" ht="18.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A15" s="12">
         <v>2</v>
       </c>
@@ -1362,7 +1532,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="16" spans="1:8" ht="18.95" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:12" ht="18.95" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
       <c r="C16" s="1">
         <v>1</v>
       </c>
